--- a/Документы/тесты/MPIHypernetTest.xlsx
+++ b/Документы/тесты/MPIHypernetTest.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
   <si>
     <t>R</t>
   </si>
@@ -388,22 +388,7 @@
     <t>RandomHypernet1(53, 55, 52)</t>
   </si>
   <si>
-    <t>274.09</t>
-  </si>
-  <si>
-    <t>29.258187290321</t>
-  </si>
-  <si>
     <t>RandomHypernet2(53, 55, 52)</t>
-  </si>
-  <si>
-    <t>140.166</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>26.790350725769</t>
   </si>
   <si>
     <t>179.388</t>
@@ -1152,7 +1137,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A5" sqref="A5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,145 +1209,97 @@
       <c r="K2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" s="4">
-        <v>316117</v>
+        <v>125681</v>
       </c>
       <c r="D3" s="4">
-        <v>16544</v>
+        <v>3831</v>
       </c>
       <c r="E3" s="4">
-        <v>142372</v>
+        <v>56689</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4">
-        <v>155189</v>
+        <v>66966</v>
       </c>
       <c r="I3" s="4">
-        <v>160961</v>
+        <v>58747</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="4">
-        <v>157172</v>
+        <v>193437</v>
       </c>
       <c r="D4" s="4">
-        <v>5507</v>
+        <v>10233</v>
       </c>
       <c r="E4" s="4">
-        <v>80354</v>
+        <v>81265</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4">
-        <v>80223</v>
+        <v>94277</v>
       </c>
       <c r="I4" s="4">
-        <v>76985</v>
+        <v>99197</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="4">
-        <v>125681</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3831</v>
-      </c>
-      <c r="E5" s="4">
-        <v>56689</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <v>66966</v>
-      </c>
-      <c r="I5" s="4">
-        <v>58747</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="4">
-        <v>193437</v>
-      </c>
-      <c r="D6" s="4">
-        <v>10233</v>
-      </c>
-      <c r="E6" s="4">
-        <v>81265</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>94277</v>
-      </c>
-      <c r="I6" s="4">
-        <v>99197</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6">
-        <v>17</v>
-      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
